--- a/target/test-classes/test1.xlsx
+++ b/target/test-classes/test1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Cell value</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>

--- a/target/test-classes/test1.xlsx
+++ b/target/test-classes/test1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cell value</t>
   </si>
@@ -24,6 +24,21 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -68,14 +83,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
-    <row r="6"/>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1234.567</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1234.567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
